--- a/data/0_raw/datos_dane_exportaciones_procesadas.xlsx
+++ b/data/0_raw/datos_dane_exportaciones_procesadas.xlsx
@@ -97515,7 +97515,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-06-16 09:37:29</t>
+          <t>2025-06-16 23:02:57</t>
         </is>
       </c>
       <c r="C2" t="n">

--- a/data/0_raw/datos_dane_exportaciones_procesadas.xlsx
+++ b/data/0_raw/datos_dane_exportaciones_procesadas.xlsx
@@ -97515,7 +97515,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-06-16 23:02:57</t>
+          <t>2025-06-18 19:29:08</t>
         </is>
       </c>
       <c r="C2" t="n">
